--- a/data/trans_orig/P6713-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P6713-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>19080</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10890</v>
+        <v>11319</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29515</v>
+        <v>29093</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06834294356314655</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03900623100730053</v>
+        <v>0.04054371348113137</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1057169439322207</v>
+        <v>0.1042083283613066</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -763,19 +763,19 @@
         <v>13740</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7329</v>
+        <v>7919</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22486</v>
+        <v>22416</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06183378488016852</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03298379820011153</v>
+        <v>0.03563804128960592</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1011934830748629</v>
+        <v>0.1008765810082723</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -784,19 +784,19 @@
         <v>32820</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22491</v>
+        <v>22455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>46453</v>
+        <v>47362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06545820502808918</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04485746851656334</v>
+        <v>0.04478543318852075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09264786229132993</v>
+        <v>0.09446112466179128</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>12494</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6037</v>
+        <v>6641</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21190</v>
+        <v>21785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04475203714893503</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02162540532510001</v>
+        <v>0.02378786362429414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07589863723613109</v>
+        <v>0.07803028619757992</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -834,19 +834,19 @@
         <v>21998</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13462</v>
+        <v>14502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33547</v>
+        <v>32458</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09899542988008546</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06058330786913928</v>
+        <v>0.06526190181654791</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1509687817288408</v>
+        <v>0.1460708049848813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -855,19 +855,19 @@
         <v>34492</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23659</v>
+        <v>23629</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47843</v>
+        <v>48490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06879170385624746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04718625438269926</v>
+        <v>0.04712602201215309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09542059245446655</v>
+        <v>0.09671131505890858</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>75048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61129</v>
+        <v>61132</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>91759</v>
+        <v>91373</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2688096177556447</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2189554992597683</v>
+        <v>0.218964749571343</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3286681344719988</v>
+        <v>0.3272835606512247</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -905,19 +905,19 @@
         <v>56676</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>43754</v>
+        <v>43200</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70406</v>
+        <v>70344</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2550557299688198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1969029668710243</v>
+        <v>0.1944130077990652</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3168462449427412</v>
+        <v>0.3165657312751607</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>122</v>
@@ -926,19 +926,19 @@
         <v>131723</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112972</v>
+        <v>111792</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152533</v>
+        <v>153919</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2627141495026943</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2253160214424071</v>
+        <v>0.2229632019648123</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3042171374552083</v>
+        <v>0.306981860157708</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>57390</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44973</v>
+        <v>43846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71657</v>
+        <v>70916</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2055639963220214</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1610879489050752</v>
+        <v>0.1570502056831658</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2566659740655561</v>
+        <v>0.2540105578669549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -976,19 +976,19 @@
         <v>41134</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29844</v>
+        <v>30389</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54485</v>
+        <v>54163</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1851142840855956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.134304081622944</v>
+        <v>0.1367576750184124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2451955110946522</v>
+        <v>0.243748216095726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>94</v>
@@ -997,19 +997,19 @@
         <v>98524</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>82402</v>
+        <v>80717</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119004</v>
+        <v>115702</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1965010627245473</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1643455473081265</v>
+        <v>0.1609855088314736</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2373461238981548</v>
+        <v>0.2307607682626086</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>115173</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97508</v>
+        <v>99011</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>131914</v>
+        <v>131424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4125314052102523</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3492601293633255</v>
+        <v>0.3546442238345035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4724961212787036</v>
+        <v>0.4707399380897154</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1047,19 +1047,19 @@
         <v>88662</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73900</v>
+        <v>73647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>104277</v>
+        <v>105236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3990007711853307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3325699882842752</v>
+        <v>0.3314303853161956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4692764119302357</v>
+        <v>0.4735890145858178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>188</v>
@@ -1068,19 +1068,19 @@
         <v>203834</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>181407</v>
+        <v>183476</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>227098</v>
+        <v>230401</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4065348788884217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3618051611542644</v>
+        <v>0.3659310475068717</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4529335417231402</v>
+        <v>0.4595209601506141</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>13508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7678</v>
+        <v>7541</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21613</v>
+        <v>21436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03553174700396853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02019618452302853</v>
+        <v>0.01983666436137002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05685194999748167</v>
+        <v>0.0563846804829186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1193,19 +1193,19 @@
         <v>24040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15313</v>
+        <v>16733</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35000</v>
+        <v>35725</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09537033772545446</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06074944333175215</v>
+        <v>0.06637997549307965</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1388468046153494</v>
+        <v>0.1417246184136695</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1214,19 +1214,19 @@
         <v>37548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27060</v>
+        <v>26604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52238</v>
+        <v>50655</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05938927117340918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04279959274972358</v>
+        <v>0.04207906098517469</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08262324928489273</v>
+        <v>0.08012026436221023</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>28468</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18983</v>
+        <v>19701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40097</v>
+        <v>41303</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07488262477985076</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04993378067160627</v>
+        <v>0.05182193339361603</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1054712570926814</v>
+        <v>0.1086443446648089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1264,19 +1264,19 @@
         <v>17208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9822</v>
+        <v>9482</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27970</v>
+        <v>27804</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06826509506781815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03896296736853897</v>
+        <v>0.0376178434966057</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1109610393111634</v>
+        <v>0.1103009663885805</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>42</v>
@@ -1285,19 +1285,19 @@
         <v>45676</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>33835</v>
+        <v>34757</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>58292</v>
+        <v>62645</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07224422917020748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05351552564660403</v>
+        <v>0.05497446797827953</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09219887545158557</v>
+        <v>0.0990836152847076</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>72779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>57827</v>
+        <v>59090</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>89590</v>
+        <v>89803</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1914399792173451</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1521098144503821</v>
+        <v>0.1554312532543032</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2356594760008008</v>
+        <v>0.2362186082291477</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -1335,19 +1335,19 @@
         <v>55852</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43230</v>
+        <v>43925</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68815</v>
+        <v>71594</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2215690781659859</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1714984564159964</v>
+        <v>0.1742532761097153</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2729960487542235</v>
+        <v>0.2840214445005299</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -1356,19 +1356,19 @@
         <v>128631</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>109323</v>
+        <v>109932</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150695</v>
+        <v>151839</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.20345238956498</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.172913781186009</v>
+        <v>0.1738762576730331</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2383503975559524</v>
+        <v>0.2401610219234309</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>95283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80020</v>
+        <v>78445</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>114524</v>
+        <v>113618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2506355757249742</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2104869798760179</v>
+        <v>0.206343733873753</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3012476528412554</v>
+        <v>0.2988646876597463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1406,19 +1406,19 @@
         <v>55422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43090</v>
+        <v>43262</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70448</v>
+        <v>70670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2198644150028606</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1709427120893976</v>
+        <v>0.1716255296373303</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2794735592761597</v>
+        <v>0.280354325700141</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -1427,19 +1427,19 @@
         <v>150705</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>129012</v>
+        <v>126733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173795</v>
+        <v>173394</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2383671766567794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2040560830482437</v>
+        <v>0.2004506135887423</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2748871358103657</v>
+        <v>0.2742539231609647</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>170129</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149610</v>
+        <v>149405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>190409</v>
+        <v>189212</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4475100732738614</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3935367147904518</v>
+        <v>0.3929971510032914</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5008565333603943</v>
+        <v>0.4977064033501282</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>95</v>
@@ -1477,19 +1477,19 @@
         <v>99551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82302</v>
+        <v>82610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114205</v>
+        <v>115531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3949310740378809</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3265009214764497</v>
+        <v>0.327722872020162</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4530630840353886</v>
+        <v>0.4583253297930765</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>256</v>
@@ -1498,19 +1498,19 @@
         <v>269680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245445</v>
+        <v>242980</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>296248</v>
+        <v>298721</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.426546933434624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.388214164233857</v>
+        <v>0.3843163373324034</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4685691943260191</v>
+        <v>0.4724798365547575</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>15385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9112</v>
+        <v>8336</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25926</v>
+        <v>25227</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03407756196337171</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02018319602040122</v>
+        <v>0.01846388201890533</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05742438457424946</v>
+        <v>0.05587756189100147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1623,19 +1623,19 @@
         <v>6885</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3007</v>
+        <v>2357</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15318</v>
+        <v>14705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02470808475856108</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01078948200589558</v>
+        <v>0.008459829736108145</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05497049007130949</v>
+        <v>0.05276883685086716</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1644,19 +1644,19 @@
         <v>22270</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14366</v>
+        <v>13445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33351</v>
+        <v>34613</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0305016159482438</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01967577747467557</v>
+        <v>0.01841474141045865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04567733391595573</v>
+        <v>0.04740590859394596</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>24335</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15951</v>
+        <v>15879</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38005</v>
+        <v>36384</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05390205522358372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03533076939914524</v>
+        <v>0.03517097161126397</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08418024281797309</v>
+        <v>0.08058939038998662</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1694,19 +1694,19 @@
         <v>15723</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9198</v>
+        <v>9244</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24339</v>
+        <v>24575</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05642321074440725</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03300632776432572</v>
+        <v>0.03317302067420267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08734115971019586</v>
+        <v>0.08818948451313173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1715,19 +1715,19 @@
         <v>40058</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28103</v>
+        <v>27498</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54151</v>
+        <v>54246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05486427711079614</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0384902177947532</v>
+        <v>0.03766143701989449</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07416594301004871</v>
+        <v>0.07429574083275052</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>91836</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>75103</v>
+        <v>74853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111071</v>
+        <v>110665</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2034137554000414</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1663518984567351</v>
+        <v>0.1657985767045788</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2460203615782887</v>
+        <v>0.245119579130663</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -1765,19 +1765,19 @@
         <v>60919</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48090</v>
+        <v>47412</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75572</v>
+        <v>75200</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2186119024360794</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1725760977401494</v>
+        <v>0.1701405850413269</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2711973578870392</v>
+        <v>0.2698605235727166</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>145</v>
@@ -1786,19 +1786,19 @@
         <v>152754</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>131399</v>
+        <v>132092</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>176921</v>
+        <v>178305</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2092142661588428</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1799659410449061</v>
+        <v>0.1809148951137836</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2423136309688158</v>
+        <v>0.2442080919306552</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>101821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84444</v>
+        <v>84858</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>121418</v>
+        <v>121939</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2255302211852286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1870422123485184</v>
+        <v>0.1879594142084826</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2689371355330956</v>
+        <v>0.2700915808772854</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1836,19 +1836,19 @@
         <v>65026</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51482</v>
+        <v>51529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79576</v>
+        <v>80205</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2333522478445122</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1847466237673334</v>
+        <v>0.1849147646893959</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2855633531791037</v>
+        <v>0.2878214926365499</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -1857,19 +1857,19 @@
         <v>166847</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144300</v>
+        <v>146500</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>191580</v>
+        <v>191520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.228515568654576</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1976353035177442</v>
+        <v>0.2006478834466102</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2623904729455493</v>
+        <v>0.2623079119165952</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>218095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196205</v>
+        <v>196233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240285</v>
+        <v>238320</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4830764062277745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4345898194043751</v>
+        <v>0.434651970927629</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5322266072045567</v>
+        <v>0.527874068876548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>122</v>
@@ -1907,19 +1907,19 @@
         <v>130109</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113931</v>
+        <v>113923</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>148291</v>
+        <v>146683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4669045542164402</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4088490755214527</v>
+        <v>0.408823029257464</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5321540552700877</v>
+        <v>0.526383402063482</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>329</v>
@@ -1928,19 +1928,19 @@
         <v>348204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>322759</v>
+        <v>320627</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>378462</v>
+        <v>376245</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4769042721275413</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4420544068559221</v>
+        <v>0.4391349966237464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5183455723269009</v>
+        <v>0.5153088535307743</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>9853</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4182</v>
+        <v>4100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18849</v>
+        <v>18980</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03324683127062546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0141103797284702</v>
+        <v>0.01383292634416514</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0636004143512644</v>
+        <v>0.06404044606381001</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -2053,19 +2053,19 @@
         <v>14684</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8841</v>
+        <v>8222</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23863</v>
+        <v>23326</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07872158158085646</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04739443344434401</v>
+        <v>0.04407946079804945</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1279287058947666</v>
+        <v>0.1250496502678081</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -2074,19 +2074,19 @@
         <v>24538</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16290</v>
+        <v>15432</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>38681</v>
+        <v>35707</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05081274489181041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0337335981980724</v>
+        <v>0.03195566362662113</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08010057058020668</v>
+        <v>0.0739411977994254</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>9046</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3562</v>
+        <v>3763</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18128</v>
+        <v>18729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0305240340023039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0120181816509591</v>
+        <v>0.0126970943075387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06116620120391112</v>
+        <v>0.06319541399886427</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -2124,19 +2124,19 @@
         <v>8839</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3920</v>
+        <v>3985</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19065</v>
+        <v>18647</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0473837832592143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02101228057392477</v>
+        <v>0.02136382244680426</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.102204531240158</v>
+        <v>0.09996332553930186</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -2145,19 +2145,19 @@
         <v>17885</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>10277</v>
+        <v>9825</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>31798</v>
+        <v>29795</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03703659090698899</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02128169867260275</v>
+        <v>0.02034522897218063</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06584641622194906</v>
+        <v>0.06169858853223723</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>47667</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35484</v>
+        <v>35887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>61760</v>
+        <v>62790</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1608358566505405</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1197303574296077</v>
+        <v>0.1210892977932871</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2083885862120218</v>
+        <v>0.211862938180852</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -2195,19 +2195,19 @@
         <v>24253</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15806</v>
+        <v>15400</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>35498</v>
+        <v>34071</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1300193150162318</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08473477838532952</v>
+        <v>0.08255949278146042</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1903007902921702</v>
+        <v>0.1826536720371258</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -2216,19 +2216,19 @@
         <v>71920</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>57432</v>
+        <v>57262</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>90413</v>
+        <v>90263</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1489320923690656</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1189292563520891</v>
+        <v>0.1185785935448018</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1872271439319625</v>
+        <v>0.1869171200772613</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>70345</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>56564</v>
+        <v>56375</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>87211</v>
+        <v>86279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2373565683193634</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1908550882266376</v>
+        <v>0.1902199825016367</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2942650442580864</v>
+        <v>0.2911218360298542</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>32</v>
@@ -2266,19 +2266,19 @@
         <v>37137</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>26258</v>
+        <v>26304</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>49892</v>
+        <v>48976</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1990869877222509</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1407653991097085</v>
+        <v>0.1410107970104235</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2674640566776093</v>
+        <v>0.2625563525788916</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>99</v>
@@ -2287,19 +2287,19 @@
         <v>107482</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>88332</v>
+        <v>88169</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>127847</v>
+        <v>130513</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2225738560999054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1829182943944224</v>
+        <v>0.1825795358612205</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.264746206598081</v>
+        <v>0.270267240596633</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>159457</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>139775</v>
+        <v>140523</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>176206</v>
+        <v>178441</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5380367097571668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4716234624293121</v>
+        <v>0.4741476662389367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5945486604178749</v>
+        <v>0.602092285701905</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>94</v>
@@ -2337,19 +2337,19 @@
         <v>101623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88076</v>
+        <v>87111</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>116655</v>
+        <v>117202</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5447883324214465</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4721655014957402</v>
+        <v>0.4669951001478434</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6253743730541955</v>
+        <v>0.6283072869993358</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>237</v>
@@ -2358,19 +2358,19 @@
         <v>261080</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>238518</v>
+        <v>241101</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>284761</v>
+        <v>285151</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5406447157322296</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4939233295036053</v>
+        <v>0.4992719157722788</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5896827514585511</v>
+        <v>0.5904916853141232</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>57827</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43942</v>
+        <v>43671</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74797</v>
+        <v>74345</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04109367347366905</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03122699667627079</v>
+        <v>0.03103385111459782</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05315330808045517</v>
+        <v>0.05283195038331952</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -2483,19 +2483,19 @@
         <v>59350</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45290</v>
+        <v>44965</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>76807</v>
+        <v>76640</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0631731373138366</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04820712823724214</v>
+        <v>0.04786152815289218</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08175524016344828</v>
+        <v>0.08157709094549434</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>108</v>
@@ -2504,19 +2504,19 @@
         <v>117177</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>96017</v>
+        <v>97536</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>141908</v>
+        <v>141672</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0499330817482599</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04091621596225942</v>
+        <v>0.04156364452117137</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06047181863220027</v>
+        <v>0.06037152101826528</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>74344</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>57981</v>
+        <v>57685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>93830</v>
+        <v>94617</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05283116573937607</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04120345488730375</v>
+        <v>0.04099314619268532</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06667863347839059</v>
+        <v>0.06723803926121408</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>57</v>
@@ -2554,19 +2554,19 @@
         <v>63767</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>49143</v>
+        <v>47946</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>81675</v>
+        <v>82605</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06787503452485472</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05230877707459387</v>
+        <v>0.05103485076109886</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08693636778662608</v>
+        <v>0.08792636655921227</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>124</v>
@@ -2575,19 +2575,19 @@
         <v>138111</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>115187</v>
+        <v>116565</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>162636</v>
+        <v>166266</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05885390701547083</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04908539437970364</v>
+        <v>0.04967255995223618</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06930490399647198</v>
+        <v>0.07085163574420707</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>287329</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>258276</v>
+        <v>257326</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>319938</v>
+        <v>320423</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2041860489826363</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1835395954088576</v>
+        <v>0.182864374875229</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2273585520876671</v>
+        <v>0.227703227020909</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>183</v>
@@ -2625,19 +2625,19 @@
         <v>197699</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>172858</v>
+        <v>174529</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>223869</v>
+        <v>223281</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.210434902728393</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1839935611350119</v>
+        <v>0.1857723756922074</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2382910532471347</v>
+        <v>0.2376651138781884</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>455</v>
@@ -2646,19 +2646,19 @@
         <v>485029</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>444887</v>
+        <v>445094</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>528007</v>
+        <v>527175</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2066877478421196</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.189582182511472</v>
+        <v>0.1896701228259566</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2250022997237014</v>
+        <v>0.2246479932180008</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>324840</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>294567</v>
+        <v>293083</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>357534</v>
+        <v>356236</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.230842152697897</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2093295216806113</v>
+        <v>0.2082749051382597</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2540758842772282</v>
+        <v>0.2531533563278112</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>181</v>
@@ -2696,19 +2696,19 @@
         <v>198719</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>174555</v>
+        <v>172308</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>227530</v>
+        <v>227497</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2115204796049693</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1858001463334004</v>
+        <v>0.1834084854682599</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.242187076073445</v>
+        <v>0.2421527582337696</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>493</v>
@@ -2717,19 +2717,19 @@
         <v>523559</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>482478</v>
+        <v>482132</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>569538</v>
+        <v>565582</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2231068128249308</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2056009486396314</v>
+        <v>0.2054532745649331</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2427002535485253</v>
+        <v>0.2410145396598193</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>662854</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>628025</v>
+        <v>625291</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>702477</v>
+        <v>701351</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4710469591064216</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4462963086319207</v>
+        <v>0.4443531822162106</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4992037733544568</v>
+        <v>0.4984041165760109</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>391</v>
@@ -2767,19 +2767,19 @@
         <v>419944</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>387776</v>
+        <v>386280</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>452569</v>
+        <v>454454</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4469964458279463</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.412756435455151</v>
+        <v>0.4111636975485181</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4817237434001173</v>
+        <v>0.4837294851976489</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1010</v>
@@ -2788,19 +2788,19 @@
         <v>1082798</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1036512</v>
+        <v>1030883</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1135927</v>
+        <v>1128825</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4614184505692189</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4416942738145403</v>
+        <v>0.4392956046242226</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4840583358495714</v>
+        <v>0.4810318794897634</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>24185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15877</v>
+        <v>16308</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35488</v>
+        <v>33900</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08238150189712327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05408230242711753</v>
+        <v>0.05554991069190731</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1208812694757611</v>
+        <v>0.1154735187872214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -3153,19 +3153,19 @@
         <v>26689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17802</v>
+        <v>16691</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38626</v>
+        <v>38030</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09626819116526987</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06421435247093762</v>
+        <v>0.0602066436814666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.139328681071818</v>
+        <v>0.1371796494455726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -3174,19 +3174,19 @@
         <v>50874</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38596</v>
+        <v>37283</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65906</v>
+        <v>65231</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08912599736586048</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06761548934012046</v>
+        <v>0.06531617877662214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.115460323911302</v>
+        <v>0.1142774396521485</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>28023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18015</v>
+        <v>18576</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39225</v>
+        <v>40163</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09545219928139498</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06136514592487304</v>
+        <v>0.06327336995127426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1336087140340326</v>
+        <v>0.1368035439529006</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3224,19 +3224,19 @@
         <v>54133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>41257</v>
+        <v>42084</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68029</v>
+        <v>67277</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1952624461876713</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1488186918881762</v>
+        <v>0.1518001685341978</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2453884838227897</v>
+        <v>0.2426750457813013</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -3245,19 +3245,19 @@
         <v>82155</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67652</v>
+        <v>66462</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>101515</v>
+        <v>99836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1439280991157093</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1185189994884091</v>
+        <v>0.1164355767594704</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1778446857152707</v>
+        <v>0.1749023612439548</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>86719</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72175</v>
+        <v>70234</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106763</v>
+        <v>102234</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2953865153993812</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2458462084252001</v>
+        <v>0.239233554271738</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3636615397110595</v>
+        <v>0.3482333806559061</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -3295,19 +3295,19 @@
         <v>68438</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55310</v>
+        <v>54388</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83935</v>
+        <v>83127</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2468632517438683</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1995092621910463</v>
+        <v>0.196183964394797</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3027610546800773</v>
+        <v>0.2998476840956427</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>146</v>
@@ -3316,19 +3316,19 @@
         <v>155157</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134120</v>
+        <v>135078</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176764</v>
+        <v>176020</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2718197079672001</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2349655394004453</v>
+        <v>0.2366425808423976</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3096720655870705</v>
+        <v>0.3083700035749294</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>83451</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68676</v>
+        <v>68026</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100175</v>
+        <v>100415</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2842537707475195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2339262007628879</v>
+        <v>0.2317138269213708</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3412199501828734</v>
+        <v>0.3420375358832087</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -3366,19 +3366,19 @@
         <v>69792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56110</v>
+        <v>55407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>86635</v>
+        <v>84157</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.25174703138557</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.202393104671768</v>
+        <v>0.1998591303096593</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3125010897349108</v>
+        <v>0.3035618379681382</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>146</v>
@@ -3387,19 +3387,19 @@
         <v>153243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>133842</v>
+        <v>134397</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177478</v>
+        <v>178041</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2684658783207056</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2344773265302626</v>
+        <v>0.2354494086058173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3109235584586992</v>
+        <v>0.3119097397366999</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>71200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54985</v>
+        <v>56753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>87288</v>
+        <v>87707</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2425260126745811</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.187292048609932</v>
+        <v>0.1933155212204803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2973254419320162</v>
+        <v>0.2987533858979894</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -3437,19 +3437,19 @@
         <v>58179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45570</v>
+        <v>45172</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72299</v>
+        <v>73102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2098590795176205</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1643771747644007</v>
+        <v>0.1629397412666912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2607906105155928</v>
+        <v>0.2636867637383279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>119</v>
@@ -3458,19 +3458,19 @@
         <v>129380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>110313</v>
+        <v>110749</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>149500</v>
+        <v>153077</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2266603172305245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1932578837956266</v>
+        <v>0.1940205605198886</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2619081317684402</v>
+        <v>0.2681762293680265</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>25065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16781</v>
+        <v>16681</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37122</v>
+        <v>37086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06419171367988974</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04297613577480659</v>
+        <v>0.04271910440697432</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0950700584340077</v>
+        <v>0.09497600728236673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -3583,19 +3583,19 @@
         <v>30417</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20562</v>
+        <v>21044</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41640</v>
+        <v>42609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1126343104874444</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07614009130564033</v>
+        <v>0.07792385012168708</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1541922868360843</v>
+        <v>0.1577796773750323</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>52</v>
@@ -3604,19 +3604,19 @@
         <v>55482</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41844</v>
+        <v>43642</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70803</v>
+        <v>73143</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08399719230754484</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06334948760765838</v>
+        <v>0.06607145469027374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1071910730907877</v>
+        <v>0.1107346346508516</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>44518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33515</v>
+        <v>32448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58508</v>
+        <v>57637</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1140102176703398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08583231897018863</v>
+        <v>0.08309981657478631</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1498387760120016</v>
+        <v>0.1476069861707205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -3654,19 +3654,19 @@
         <v>29161</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>20935</v>
+        <v>20422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40524</v>
+        <v>40101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1079820881373262</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07752004900238474</v>
+        <v>0.07562087521094338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1500586073925022</v>
+        <v>0.1484938493283114</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>72</v>
@@ -3675,19 +3675,19 @@
         <v>73679</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>60518</v>
+        <v>59577</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>92717</v>
+        <v>90045</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1115456513898588</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09162145185399322</v>
+        <v>0.09019568256320129</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1403683989689431</v>
+        <v>0.136322845865946</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>100913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>85048</v>
+        <v>82311</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>119203</v>
+        <v>119420</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2584371315400361</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2178063053360129</v>
+        <v>0.2107978365108668</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3052779718951165</v>
+        <v>0.3058337108164613</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -3725,19 +3725,19 @@
         <v>66625</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53880</v>
+        <v>54347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>81016</v>
+        <v>81097</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2467123421185247</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1995163405990547</v>
+        <v>0.2012453386355681</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3000018641748012</v>
+        <v>0.3003016283937881</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -3746,19 +3746,19 @@
         <v>167538</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147273</v>
+        <v>147495</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>192059</v>
+        <v>190108</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2536435184473274</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2229633892352267</v>
+        <v>0.2232988863426018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2907662690989634</v>
+        <v>0.2878126469198364</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>120637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104368</v>
+        <v>102456</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>141807</v>
+        <v>140106</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3089504992425778</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2672862927695067</v>
+        <v>0.2623887181186046</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.363165828529141</v>
+        <v>0.3588096104512606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>64</v>
@@ -3796,19 +3796,19 @@
         <v>64623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>50997</v>
+        <v>52573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>79293</v>
+        <v>79613</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2392957868481157</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1888420765019268</v>
+        <v>0.1946754733489606</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2936189693044858</v>
+        <v>0.2948066252517243</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -3817,19 +3817,19 @@
         <v>185260</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161472</v>
+        <v>165792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208591</v>
+        <v>209529</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2804725684841499</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2444588038864901</v>
+        <v>0.2510002267746412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3157951492833277</v>
+        <v>0.317214878523669</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>99341</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83665</v>
+        <v>81644</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118817</v>
+        <v>118346</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2544104378671565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2142641903833246</v>
+        <v>0.2090882894233153</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3042894904200831</v>
+        <v>0.3030829099822157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -3867,19 +3867,19 @@
         <v>79227</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64688</v>
+        <v>65568</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>95018</v>
+        <v>95866</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2933754724085891</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2395388677420211</v>
+        <v>0.2427963639041466</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3518494554345161</v>
+        <v>0.3549908147491669</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>170</v>
@@ -3888,19 +3888,19 @@
         <v>178568</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>156194</v>
+        <v>157092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>203068</v>
+        <v>202682</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2703410693711191</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2364684291630343</v>
+        <v>0.2378278073213324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.307432553761623</v>
+        <v>0.3068495062662648</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>24996</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16431</v>
+        <v>15082</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36554</v>
+        <v>36095</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05479370946489663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03601806709964329</v>
+        <v>0.03306005754968263</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08012997631305255</v>
+        <v>0.07912215406650885</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4013,19 +4013,19 @@
         <v>16996</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10906</v>
+        <v>10194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25944</v>
+        <v>26032</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0584795088788564</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03752638185578252</v>
+        <v>0.03507579594702611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08926704560885376</v>
+        <v>0.08957108339816248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -4034,19 +4034,19 @@
         <v>41992</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30133</v>
+        <v>30964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58082</v>
+        <v>55997</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05622808147537121</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04034822887304504</v>
+        <v>0.04146113153772783</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07777185579884387</v>
+        <v>0.074979858729442</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>41968</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30663</v>
+        <v>30471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55219</v>
+        <v>56331</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09199639471380348</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06721635022849672</v>
+        <v>0.06679533165141487</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1210450346251354</v>
+        <v>0.123482739444419</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -4084,19 +4084,19 @@
         <v>31952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21938</v>
+        <v>22263</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43781</v>
+        <v>42269</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1099375920835118</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0754843698587013</v>
+        <v>0.07659982957828497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1506396794103626</v>
+        <v>0.1454369346516255</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>73</v>
@@ -4105,19 +4105,19 @@
         <v>73919</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58799</v>
+        <v>58279</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90846</v>
+        <v>91079</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0989784217997166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07873239657471999</v>
+        <v>0.07803522220970815</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1216435551420644</v>
+        <v>0.1219555727528239</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>104124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>85054</v>
+        <v>85772</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124136</v>
+        <v>121746</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2282489667400991</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1864451626949927</v>
+        <v>0.1880189831584939</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2721166150498212</v>
+        <v>0.2668768214169892</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>67</v>
@@ -4155,19 +4155,19 @@
         <v>66318</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53829</v>
+        <v>53069</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>80973</v>
+        <v>80401</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2281822755535192</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1852121478597714</v>
+        <v>0.182597903912477</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2786076720848304</v>
+        <v>0.2766375614432931</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -4176,19 +4176,19 @@
         <v>170442</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147976</v>
+        <v>146658</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194800</v>
+        <v>194119</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2282230130837462</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1981400903355705</v>
+        <v>0.1963760685976125</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2608384297719088</v>
+        <v>0.2599266634673645</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>109936</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>90918</v>
+        <v>92867</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>128965</v>
+        <v>129414</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2409882914298954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.199298344258275</v>
+        <v>0.2035713335608987</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2827013595629609</v>
+        <v>0.2836857854037584</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>90</v>
@@ -4226,19 +4226,19 @@
         <v>89042</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74674</v>
+        <v>74689</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108720</v>
+        <v>105146</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3063710710507587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2569342640304654</v>
+        <v>0.256984157547727</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3740775854074272</v>
+        <v>0.3617819560513369</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -4247,19 +4247,19 @@
         <v>198978</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175213</v>
+        <v>176266</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>224261</v>
+        <v>225121</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2664327658904412</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2346107580439648</v>
+        <v>0.2360203817018557</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.300286284501722</v>
+        <v>0.3014377229221128</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>175164</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152502</v>
+        <v>153953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>194452</v>
+        <v>196421</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3839726376513053</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3342962305853681</v>
+        <v>0.3374771399041987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4262544546013126</v>
+        <v>0.4305711141771649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>84</v>
@@ -4297,19 +4297,19 @@
         <v>86327</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>72397</v>
+        <v>70693</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>104470</v>
+        <v>101404</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2970295524333539</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2491000788005443</v>
+        <v>0.2432348212956796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3594560154026036</v>
+        <v>0.3489042158673653</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>251</v>
@@ -4318,19 +4318,19 @@
         <v>261491</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>235408</v>
+        <v>237112</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>286775</v>
+        <v>288030</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3501377177507248</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3152123983808225</v>
+        <v>0.3174942546970848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3839929162997088</v>
+        <v>0.385673622890995</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>7276</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3316</v>
+        <v>3202</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15102</v>
+        <v>14307</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02644278478684883</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01205241577543985</v>
+        <v>0.01163888873949364</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05488594916457371</v>
+        <v>0.05199875643007565</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -4443,19 +4443,19 @@
         <v>15555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9049</v>
+        <v>7938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>24339</v>
+        <v>24650</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08015588787899723</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04662915736678405</v>
+        <v>0.04090396994372428</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1254161521657193</v>
+        <v>0.1270200035771439</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4464,19 +4464,19 @@
         <v>22831</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14462</v>
+        <v>14474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34588</v>
+        <v>34829</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04865815714090473</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03082141764437727</v>
+        <v>0.03084674148610086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07371460083971945</v>
+        <v>0.07422853957630336</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>21082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12772</v>
+        <v>12489</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31514</v>
+        <v>30792</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07662136015924119</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04641959089461669</v>
+        <v>0.04538851624576311</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1145327299664218</v>
+        <v>0.111909211950696</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -4514,19 +4514,19 @@
         <v>12380</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6653</v>
+        <v>6717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19871</v>
+        <v>20223</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06379147775398895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03428419089241243</v>
+        <v>0.03461169597227961</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.102392192494144</v>
+        <v>0.1042082951641743</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -4535,19 +4535,19 @@
         <v>33462</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>23078</v>
+        <v>23700</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>46280</v>
+        <v>46316</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07131500847811681</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04918479116501109</v>
+        <v>0.05051112690941645</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09863355635064759</v>
+        <v>0.09870915908229527</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>66159</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>51564</v>
+        <v>52511</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81056</v>
+        <v>80914</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2404470174467349</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1874036437309429</v>
+        <v>0.1908444529781174</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2945883396313272</v>
+        <v>0.2940740851298935</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>28</v>
@@ -4585,19 +4585,19 @@
         <v>28088</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>19832</v>
+        <v>19440</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39025</v>
+        <v>38928</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1447353771164673</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1021916144219727</v>
+        <v>0.100175273261136</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2010954641346643</v>
+        <v>0.2005938614461162</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -4606,19 +4606,19 @@
         <v>94247</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>76486</v>
+        <v>75740</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>114461</v>
+        <v>111131</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2008613371164324</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.163009227560771</v>
+        <v>0.1614189207011995</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2439437954024676</v>
+        <v>0.2368456287331399</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>47423</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35843</v>
+        <v>33338</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60760</v>
+        <v>61705</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1723550294144497</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1302683410131797</v>
+        <v>0.121164712029879</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2208253025919523</v>
+        <v>0.2242615772490912</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -4656,19 +4656,19 @@
         <v>49904</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39299</v>
+        <v>38309</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62703</v>
+        <v>63256</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2571528656617455</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2025060547043294</v>
+        <v>0.1974036181509995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3231061792222252</v>
+        <v>0.3259551967852481</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -4677,19 +4677,19 @@
         <v>97327</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>80451</v>
+        <v>79613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115470</v>
+        <v>117207</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2074268349629045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1714606486099729</v>
+        <v>0.1696737393568468</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2460927929399734</v>
+        <v>0.249794692703921</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>133209</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>117398</v>
+        <v>116218</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>150193</v>
+        <v>149781</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4841338081927253</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4266708968316878</v>
+        <v>0.4223807636179391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5458616830134158</v>
+        <v>0.5443628141539347</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>82</v>
@@ -4727,19 +4727,19 @@
         <v>88137</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>74651</v>
+        <v>73733</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102669</v>
+        <v>101333</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.454164391588801</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3846760405445271</v>
+        <v>0.3799460443108976</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5290483008890571</v>
+        <v>0.5221661414475689</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>203</v>
@@ -4748,19 +4748,19 @@
         <v>221345</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>198358</v>
+        <v>200025</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242289</v>
+        <v>243587</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4717386623016415</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4227477633430068</v>
+        <v>0.4262988934291679</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5163733386123246</v>
+        <v>0.5191411361909927</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>81523</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64348</v>
+        <v>64271</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>102218</v>
+        <v>101749</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05759725607830145</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04546299261040511</v>
+        <v>0.0454089784521424</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07221907480692133</v>
+        <v>0.07188751934248588</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>85</v>
@@ -4873,19 +4873,19 @@
         <v>89657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>72397</v>
+        <v>71601</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>109258</v>
+        <v>108630</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08687867407558929</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07015353770408872</v>
+        <v>0.06938225289666398</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1058715822385039</v>
+        <v>0.1052631852980634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>160</v>
@@ -4894,19 +4894,19 @@
         <v>171180</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>147398</v>
+        <v>146001</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>198600</v>
+        <v>196532</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06994433218684314</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0602269835004399</v>
+        <v>0.05965606734479573</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08114809772204581</v>
+        <v>0.08030325330580772</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>135591</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>113621</v>
+        <v>115951</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>160460</v>
+        <v>160681</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09579743025934283</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08027530073992323</v>
+        <v>0.08192180961171128</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.113368300369069</v>
+        <v>0.1135242275125381</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>129</v>
@@ -4944,19 +4944,19 @@
         <v>127625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107930</v>
+        <v>108172</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>149681</v>
+        <v>149340</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1236697509508109</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1045848823339014</v>
+        <v>0.1048200440786965</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1450426323500126</v>
+        <v>0.1447119396186168</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>257</v>
@@ -4965,19 +4965,19 @@
         <v>263216</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>231846</v>
+        <v>230276</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>292780</v>
+        <v>293706</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1075503332414017</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09473255304532437</v>
+        <v>0.0940911587946469</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1196303786643906</v>
+        <v>0.1200087381949933</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>357915</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>324391</v>
+        <v>324086</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>390029</v>
+        <v>390683</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2528740500478706</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2291886062692136</v>
+        <v>0.2289727952922895</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2755630034168332</v>
+        <v>0.2760250977760423</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>226</v>
@@ -5015,19 +5015,19 @@
         <v>229469</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>202957</v>
+        <v>203186</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>257399</v>
+        <v>256040</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2223576348026695</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1966676050309536</v>
+        <v>0.1968887130873595</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2494219340512678</v>
+        <v>0.2481049892559543</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>554</v>
@@ -5036,19 +5036,19 @@
         <v>587384</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>546540</v>
+        <v>543134</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>633133</v>
+        <v>633203</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2400062134688067</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2233170396231914</v>
+        <v>0.2219252031590831</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2586992915233067</v>
+        <v>0.2587277878808553</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>361447</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>330623</v>
+        <v>331141</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>392852</v>
+        <v>395285</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2553694082153211</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2335912854729005</v>
+        <v>0.2339576323628594</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2775572299054325</v>
+        <v>0.2792765674509353</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>269</v>
@@ -5086,19 +5086,19 @@
         <v>273361</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>246527</v>
+        <v>248508</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>304496</v>
+        <v>302915</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2648889790226505</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2388872481075323</v>
+        <v>0.2408067325763638</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2950591425721498</v>
+        <v>0.2935275944344596</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>610</v>
@@ -5107,19 +5107,19 @@
         <v>634808</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>596043</v>
+        <v>593586</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>681232</v>
+        <v>681345</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2593835193246135</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2435442230892419</v>
+        <v>0.2425400231592913</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2783526012409215</v>
+        <v>0.2783986047457777</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>478914</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>443346</v>
+        <v>443468</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>516594</v>
+        <v>517124</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.338361855399164</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3132326145090343</v>
+        <v>0.3133183748451311</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3649838279306857</v>
+        <v>0.3653578650708293</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>299</v>
@@ -5157,19 +5157,19 @@
         <v>311870</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>283252</v>
+        <v>282900</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>342976</v>
+        <v>343380</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3022049611482797</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2744741895633009</v>
+        <v>0.2741329577532028</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3323472349499201</v>
+        <v>0.3327380825307923</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>743</v>
@@ -5178,19 +5178,19 @@
         <v>790784</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>747056</v>
+        <v>742046</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>840075</v>
+        <v>835919</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3231156017783349</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3052481786640498</v>
+        <v>0.3032009758923924</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.343255972846289</v>
+        <v>0.3415577553260453</v>
       </c>
     </row>
     <row r="33">
